--- a/POI/Points.xlsx
+++ b/POI/Points.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9485AEA2-7146-4679-BF9E-FEBC49EB4EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A30210-FFE9-418F-B354-6C7DD4BC4364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$N$1:$N$134</definedName>
+  </definedNames>
   <calcPr calcId="191029" forceFullCalc="1"/>
 </workbook>
 </file>
@@ -1742,10 +1745,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2050,19 +2052,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BX134"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="13" max="13" width="39.85546875" customWidth="1"/>
     <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2075,7 +2078,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2119,7 +2122,7 @@
       <c r="C2">
         <v>95.583190900000005</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>69</v>
       </c>
       <c r="E2" t="s">
@@ -2163,7 +2166,7 @@
       <c r="C3">
         <v>98.018432599999997</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>85</v>
       </c>
       <c r="E3" t="s">
@@ -2207,7 +2210,7 @@
       <c r="C4">
         <v>97.039428700000002</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
       <c r="E4" t="s">
@@ -2251,7 +2254,7 @@
       <c r="C5">
         <v>95.526428199999998</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>81</v>
       </c>
       <c r="E5" t="s">
@@ -2295,7 +2298,7 @@
       <c r="C6">
         <v>96.131835899999999</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>64</v>
       </c>
       <c r="E6" t="s">
@@ -2339,7 +2342,7 @@
       <c r="C7">
         <v>95.317993200000004</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>89</v>
       </c>
       <c r="E7" t="s">
@@ -2383,7 +2386,7 @@
       <c r="C8">
         <v>97.812622099999999</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>73</v>
       </c>
       <c r="E8" t="s">
@@ -2427,7 +2430,7 @@
       <c r="C9">
         <v>98.7153931</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>118</v>
       </c>
       <c r="E9" t="s">
@@ -2471,7 +2474,7 @@
       <c r="C10">
         <v>97.609802299999998</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>102</v>
       </c>
       <c r="E10" t="s">
@@ -2515,7 +2518,7 @@
       <c r="C11">
         <v>99.469238300000001</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>94</v>
       </c>
       <c r="E11" t="s">
@@ -2559,7 +2562,7 @@
       <c r="C12">
         <v>97.170837399999996</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>133</v>
       </c>
       <c r="E12" t="s">
@@ -2598,12 +2601,12 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>0.6328125</v>
+        <v>0.36393779999999998</v>
       </c>
       <c r="C13">
-        <v>99.070434599999999</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>99.120686899999995</v>
+      </c>
+      <c r="D13" t="s">
         <v>114</v>
       </c>
       <c r="E13" t="s">
@@ -2647,7 +2650,7 @@
       <c r="C14">
         <v>99.318603499999995</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>98</v>
       </c>
       <c r="E14" t="s">
@@ -2691,7 +2694,7 @@
       <c r="C15">
         <v>98.213989299999994</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>110</v>
       </c>
       <c r="E15" t="s">
@@ -2735,7 +2738,7 @@
       <c r="C16">
         <v>98.285034199999998</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>126</v>
       </c>
       <c r="E16" t="s">
@@ -2779,7 +2782,7 @@
       <c r="C17">
         <v>98.786438000000004</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>140</v>
       </c>
       <c r="E17" t="s">
@@ -2823,7 +2826,7 @@
       <c r="C18">
         <v>97.412231500000004</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>122</v>
       </c>
       <c r="E18" t="s">
@@ -2867,7 +2870,7 @@
       <c r="C19">
         <v>99.192810100000003</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>137</v>
       </c>
       <c r="E19" t="s">
@@ -2911,7 +2914,7 @@
       <c r="C20">
         <v>97.820800800000001</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>130</v>
       </c>
       <c r="E20" t="s">
@@ -2955,7 +2958,7 @@
       <c r="C21">
         <v>99.980590800000002</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>106</v>
       </c>
       <c r="E21" t="s">
@@ -2999,7 +3002,7 @@
       <c r="C22">
         <v>100.3527832</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>148</v>
       </c>
       <c r="E22" t="s">
@@ -3043,7 +3046,7 @@
       <c r="C23">
         <v>100.3712158</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>144</v>
       </c>
       <c r="E23" t="s">
@@ -3082,12 +3085,12 @@
         <v>91</v>
       </c>
       <c r="B24">
-        <v>2.1806030000000001</v>
+        <v>2.1770162000000002</v>
       </c>
       <c r="C24">
-        <v>100.65081790000001</v>
-      </c>
-      <c r="D24" s="1" t="s">
+        <v>100.7842394</v>
+      </c>
+      <c r="D24" t="s">
         <v>192</v>
       </c>
       <c r="E24" t="s">
@@ -3126,12 +3129,12 @@
         <v>79</v>
       </c>
       <c r="B25">
-        <v>1.5610352000000001</v>
+        <v>1.47229398220588</v>
       </c>
       <c r="C25">
-        <v>102.26342769999999</v>
-      </c>
-      <c r="D25" s="1" t="s">
+        <v>102.09968182814001</v>
+      </c>
+      <c r="D25" t="s">
         <v>167</v>
       </c>
       <c r="E25" t="s">
@@ -3175,7 +3178,7 @@
       <c r="C26">
         <v>101.4576416</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>172</v>
       </c>
       <c r="E26" t="s">
@@ -3219,7 +3222,7 @@
       <c r="C27">
         <v>103.4066162</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>176</v>
       </c>
       <c r="E27" t="s">
@@ -3263,7 +3266,7 @@
       <c r="C28">
         <v>102.7467</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>46</v>
       </c>
       <c r="E28" t="s">
@@ -3307,7 +3310,7 @@
       <c r="C29">
         <v>102.68859860000001</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>186</v>
       </c>
       <c r="E29" t="s">
@@ -3351,7 +3354,7 @@
       <c r="C30">
         <v>102.71618650000001</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>190</v>
       </c>
       <c r="E30" t="s">
@@ -3390,12 +3393,12 @@
         <v>85</v>
       </c>
       <c r="B31">
-        <v>0.20501710000000001</v>
+        <v>0.306061677096088</v>
       </c>
       <c r="C31">
-        <v>103.51019290000001</v>
-      </c>
-      <c r="D31" s="1" t="s">
+        <v>103.61478829727599</v>
+      </c>
+      <c r="D31" t="s">
         <v>181</v>
       </c>
       <c r="E31" t="s">
@@ -3439,7 +3442,7 @@
       <c r="C32">
         <v>101.6362305</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>170</v>
       </c>
       <c r="E32" t="s">
@@ -3483,7 +3486,7 @@
       <c r="C33">
         <v>103.1982422</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>183</v>
       </c>
       <c r="E33" t="s">
@@ -3527,7 +3530,7 @@
       <c r="C34">
         <v>103.8439941</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>205</v>
       </c>
       <c r="E34" t="s">
@@ -3571,7 +3574,7 @@
       <c r="C35">
         <v>103.65989999999999</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>201</v>
       </c>
       <c r="E35" t="s">
@@ -3615,7 +3618,7 @@
       <c r="C36">
         <v>104.7608032</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>214</v>
       </c>
       <c r="E36" t="s">
@@ -3659,7 +3662,7 @@
       <c r="C37">
         <v>104.81480000000001</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>208</v>
       </c>
       <c r="E37" t="s">
@@ -3703,7 +3706,7 @@
       <c r="C38">
         <v>102.30578610000001</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>196</v>
       </c>
       <c r="E38" t="s">
@@ -3747,7 +3750,7 @@
       <c r="C39">
         <v>104.62023929999999</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>235</v>
       </c>
       <c r="E39" t="s">
@@ -3791,7 +3794,7 @@
       <c r="C40">
         <v>105.319397</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>232</v>
       </c>
       <c r="E40" t="s">
@@ -3835,7 +3838,7 @@
       <c r="C41">
         <v>105.733</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>217</v>
       </c>
       <c r="E41" t="s">
@@ -3879,7 +3882,7 @@
       <c r="C42">
         <v>105.1791992</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>221</v>
       </c>
       <c r="E42" t="s">
@@ -3923,7 +3926,7 @@
       <c r="C43">
         <v>106.1298218</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>229</v>
       </c>
       <c r="E43" t="s">
@@ -3967,7 +3970,7 @@
       <c r="C44">
         <v>107.6329956</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>225</v>
       </c>
       <c r="E44" t="s">
@@ -4011,7 +4014,7 @@
       <c r="C45">
         <v>103.9998169</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>150</v>
       </c>
       <c r="E45" t="s">
@@ -4055,7 +4058,7 @@
       <c r="C46">
         <v>104.6114</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>154</v>
       </c>
       <c r="E46" t="s">
@@ -4099,7 +4102,7 @@
       <c r="C47">
         <v>103.43640000000001</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>157</v>
       </c>
       <c r="E47" t="s">
@@ -4143,7 +4146,7 @@
       <c r="C48">
         <v>103.4676</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>159</v>
       </c>
       <c r="E48" t="s">
@@ -4187,7 +4190,7 @@
       <c r="C49">
         <v>104.4389</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>162</v>
       </c>
       <c r="E49" t="s">
@@ -4231,7 +4234,7 @@
       <c r="C50">
         <v>106.9562378</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>258</v>
       </c>
       <c r="E50" t="s">
@@ -4275,7 +4278,7 @@
       <c r="C51">
         <v>106.8881836</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>261</v>
       </c>
       <c r="E51" t="s">
@@ -4319,7 +4322,7 @@
       <c r="C52">
         <v>108.571228</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>244</v>
       </c>
       <c r="E52" t="s">
@@ -4363,7 +4366,7 @@
       <c r="C53">
         <v>108.6748047</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>249</v>
       </c>
       <c r="E53" t="s">
@@ -4407,7 +4410,7 @@
       <c r="C54">
         <v>107.90460210000001</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>255</v>
       </c>
       <c r="E54" t="s">
@@ -4451,7 +4454,7 @@
       <c r="C55">
         <v>110.4240112</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>269</v>
       </c>
       <c r="E55" t="s">
@@ -4495,7 +4498,7 @@
       <c r="C56">
         <v>108.99359130000001</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>266</v>
       </c>
       <c r="E56" t="s">
@@ -4539,7 +4542,7 @@
       <c r="C57">
         <v>114.3859863</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>274</v>
       </c>
       <c r="E57" t="s">
@@ -4583,7 +4586,7 @@
       <c r="C58">
         <v>112.663208</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>278</v>
       </c>
       <c r="E58" t="s">
@@ -4627,7 +4630,7 @@
       <c r="C59">
         <v>113.94403079999999</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>288</v>
       </c>
       <c r="E59" t="s">
@@ -4671,7 +4674,7 @@
       <c r="C60">
         <v>112.9186401</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>281</v>
       </c>
       <c r="E60" t="s">
@@ -4715,7 +4718,7 @@
       <c r="C61">
         <v>113.21618650000001</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>285</v>
       </c>
       <c r="E61" t="s">
@@ -4759,7 +4762,7 @@
       <c r="C62">
         <v>112.7260132</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>292</v>
       </c>
       <c r="E62" t="s">
@@ -4803,7 +4806,7 @@
       <c r="C63">
         <v>105.95458979999999</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>239</v>
       </c>
       <c r="E63" t="s">
@@ -4847,7 +4850,7 @@
       <c r="C64">
         <v>115.2108154</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>300</v>
       </c>
       <c r="E64" t="s">
@@ -4891,7 +4894,7 @@
       <c r="C65">
         <v>114.8317871</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>297</v>
       </c>
       <c r="E65" t="s">
@@ -4935,7 +4938,7 @@
       <c r="C66">
         <v>117.37274669999999</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>314</v>
       </c>
       <c r="E66" t="s">
@@ -4979,7 +4982,7 @@
       <c r="C67">
         <v>118.71221920000001</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>304</v>
       </c>
       <c r="E67" t="s">
@@ -5023,7 +5026,7 @@
       <c r="C68">
         <v>116.0718384</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>310</v>
       </c>
       <c r="E68" t="s">
@@ -5067,7 +5070,7 @@
       <c r="C69">
         <v>121.64202880000001</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>323</v>
       </c>
       <c r="E69" t="s">
@@ -5111,7 +5114,7 @@
       <c r="C70">
         <v>121.6633911</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>327</v>
       </c>
       <c r="E70" t="s">
@@ -5155,7 +5158,7 @@
       <c r="C71">
         <v>124.5162354</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>320</v>
       </c>
       <c r="E71" t="s">
@@ -5199,7 +5202,7 @@
       <c r="C72">
         <v>119.8760376</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>338</v>
       </c>
       <c r="E72" t="s">
@@ -5243,7 +5246,7 @@
       <c r="C73">
         <v>122.2186682</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>346</v>
       </c>
       <c r="E73" t="s">
@@ -5287,7 +5290,7 @@
       <c r="C74">
         <v>120.453186</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>334</v>
       </c>
       <c r="E74" t="s">
@@ -5331,7 +5334,7 @@
       <c r="C75">
         <v>121.83801269999999</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>342</v>
       </c>
       <c r="E75" t="s">
@@ -5375,7 +5378,7 @@
       <c r="C76">
         <v>123.5275879</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>331</v>
       </c>
       <c r="E76" t="s">
@@ -5419,7 +5422,7 @@
       <c r="C77">
         <v>120.2510376</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>350</v>
       </c>
       <c r="E77" t="s">
@@ -5463,7 +5466,7 @@
       <c r="C78">
         <v>109.3351</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>355</v>
       </c>
       <c r="E78" t="s">
@@ -5507,7 +5510,7 @@
       <c r="C79">
         <v>109.3120117</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>358</v>
       </c>
       <c r="E79" t="s">
@@ -5551,7 +5554,7 @@
       <c r="C80">
         <v>112.55340579999999</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>382</v>
       </c>
       <c r="E80" t="s">
@@ -5595,7 +5598,7 @@
       <c r="C81">
         <v>111.7277832</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>367</v>
       </c>
       <c r="E81" t="s">
@@ -5639,7 +5642,7 @@
       <c r="C82">
         <v>111.6368408</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>370</v>
       </c>
       <c r="E82" t="s">
@@ -5683,7 +5686,7 @@
       <c r="C83">
         <v>113.33819579999999</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" t="s">
         <v>363</v>
       </c>
       <c r="E83" t="s">
@@ -5727,7 +5730,7 @@
       <c r="C84">
         <v>114.2584229</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>380</v>
       </c>
       <c r="E84" t="s">
@@ -5771,7 +5774,7 @@
       <c r="C85">
         <v>112.9642334</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E85" t="s">
@@ -5815,7 +5818,7 @@
       <c r="C86">
         <v>112.97003170000001</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>377</v>
       </c>
       <c r="E86" t="s">
@@ -5854,12 +5857,12 @@
         <v>286</v>
       </c>
       <c r="B87">
-        <v>-2.9281006000000001</v>
+        <v>-2.7134165273885902</v>
       </c>
       <c r="C87">
-        <v>111.67822270000001</v>
-      </c>
-      <c r="D87" s="1" t="s">
+        <v>111.15936982009499</v>
+      </c>
+      <c r="D87" t="s">
         <v>386</v>
       </c>
       <c r="E87" t="s">
@@ -5903,7 +5906,7 @@
       <c r="C88">
         <v>114.5578003</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" t="s">
         <v>52</v>
       </c>
       <c r="E88" t="s">
@@ -5947,7 +5950,7 @@
       <c r="C89">
         <v>115.41198730000001</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>399</v>
       </c>
       <c r="E89" t="s">
@@ -5991,7 +5994,7 @@
       <c r="C90">
         <v>116.8062134</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>402</v>
       </c>
       <c r="E90" t="s">
@@ -6035,7 +6038,7 @@
       <c r="C91">
         <v>117.4940186</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>410</v>
       </c>
       <c r="E91" t="s">
@@ -6079,7 +6082,7 @@
       <c r="C92">
         <v>117.6442007</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>415</v>
       </c>
       <c r="E92" t="s">
@@ -6123,7 +6126,7 @@
       <c r="C93">
         <v>117.98260500000001</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>417</v>
       </c>
       <c r="E93" t="s">
@@ -6167,7 +6170,7 @@
       <c r="C94">
         <v>117.4921875</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>14</v>
       </c>
       <c r="E94" t="s">
@@ -6211,7 +6214,7 @@
       <c r="C95">
         <v>117.49438480000001</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" t="s">
         <v>408</v>
       </c>
       <c r="E95" t="s">
@@ -6255,7 +6258,7 @@
       <c r="C96">
         <v>117.65319820000001</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" t="s">
         <v>391</v>
       </c>
       <c r="E96" t="s">
@@ -6299,7 +6302,7 @@
       <c r="C97">
         <v>117.59600829999999</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" t="s">
         <v>395</v>
       </c>
       <c r="E97" t="s">
@@ -6343,7 +6346,7 @@
       <c r="C98">
         <v>123.93524170000001</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" t="s">
         <v>420</v>
       </c>
       <c r="E98" t="s">
@@ -6387,7 +6390,7 @@
       <c r="C99">
         <v>124.8403931</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" t="s">
         <v>425</v>
       </c>
       <c r="E99" t="s">
@@ -6431,7 +6434,7 @@
       <c r="C100">
         <v>123.49938969999999</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" t="s">
         <v>424</v>
       </c>
       <c r="E100" t="s">
@@ -6475,7 +6478,7 @@
       <c r="C101">
         <v>119.744</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" t="s">
         <v>456</v>
       </c>
       <c r="E101" t="s">
@@ -6519,7 +6522,7 @@
       <c r="C102">
         <v>122.7962036</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" t="s">
         <v>443</v>
       </c>
       <c r="E102" t="s">
@@ -6563,7 +6566,7 @@
       <c r="C103">
         <v>119.8582153</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" t="s">
         <v>452</v>
       </c>
       <c r="E103" t="s">
@@ -6607,7 +6610,7 @@
       <c r="C104">
         <v>120.8002319</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" t="s">
         <v>458</v>
       </c>
       <c r="E104" t="s">
@@ -6651,7 +6654,7 @@
       <c r="C105">
         <v>119.8408203</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" t="s">
         <v>450</v>
       </c>
       <c r="E105" t="s">
@@ -6695,7 +6698,7 @@
       <c r="C106">
         <v>120.4053955</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" t="s">
         <v>475</v>
       </c>
       <c r="E106" t="s">
@@ -6739,7 +6742,7 @@
       <c r="C107">
         <v>119.40899659999999</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" t="s">
         <v>479</v>
       </c>
       <c r="E107" t="s">
@@ -6783,7 +6786,7 @@
       <c r="C108">
         <v>119.62023929999999</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" t="s">
         <v>483</v>
       </c>
       <c r="E108" t="s">
@@ -6827,7 +6830,7 @@
       <c r="C109">
         <v>120.45440670000001</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" t="s">
         <v>488</v>
       </c>
       <c r="E109" t="s">
@@ -6871,7 +6874,7 @@
       <c r="C110">
         <v>122.6050415</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" t="s">
         <v>462</v>
       </c>
       <c r="E110" t="s">
@@ -6915,7 +6918,7 @@
       <c r="C111">
         <v>122.6112061</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" t="s">
         <v>466</v>
       </c>
       <c r="E111" t="s">
@@ -6959,7 +6962,7 @@
       <c r="C112">
         <v>121.5817871</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" t="s">
         <v>470</v>
       </c>
       <c r="E112" t="s">
@@ -7003,7 +7006,7 @@
       <c r="C113">
         <v>122.7942</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" t="s">
         <v>434</v>
       </c>
       <c r="E113" t="s">
@@ -7047,7 +7050,7 @@
       <c r="C114">
         <v>123.0632542</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" t="s">
         <v>430</v>
       </c>
       <c r="E114" t="s">
@@ -7091,7 +7094,7 @@
       <c r="C115">
         <v>118.8862305</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" t="s">
         <v>441</v>
       </c>
       <c r="E115" t="s">
@@ -7135,7 +7138,7 @@
       <c r="C116">
         <v>128.1755982</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" t="s">
         <v>511</v>
       </c>
       <c r="E116" t="s">
@@ -7179,7 +7182,7 @@
       <c r="C117">
         <v>129.9075928</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" t="s">
         <v>521</v>
       </c>
       <c r="E117" t="s">
@@ -7223,7 +7226,7 @@
       <c r="C118">
         <v>126.50939940000001</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" t="s">
         <v>517</v>
       </c>
       <c r="E118" t="s">
@@ -7267,7 +7270,7 @@
       <c r="C119">
         <v>127.0875855</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" t="s">
         <v>515</v>
       </c>
       <c r="E119" t="s">
@@ -7311,7 +7314,7 @@
       <c r="C120">
         <v>131.29162600000001</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" t="s">
         <v>524</v>
       </c>
       <c r="E120" t="s">
@@ -7355,7 +7358,7 @@
       <c r="C121">
         <v>132.74200440000001</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" t="s">
         <v>526</v>
       </c>
       <c r="E121" t="s">
@@ -7399,7 +7402,7 @@
       <c r="C122">
         <v>128.2891856</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" t="s">
         <v>501</v>
       </c>
       <c r="E122" t="s">
@@ -7443,7 +7446,7 @@
       <c r="C123">
         <v>127.4802246</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" t="s">
         <v>494</v>
       </c>
       <c r="E123" t="s">
@@ -7487,7 +7490,7 @@
       <c r="C124">
         <v>127.45599369999999</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" t="s">
         <v>508</v>
       </c>
       <c r="E124" t="s">
@@ -7531,7 +7534,7 @@
       <c r="C125">
         <v>127.4484253</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" t="s">
         <v>506</v>
       </c>
       <c r="E125" t="s">
@@ -7575,7 +7578,7 @@
       <c r="C126">
         <v>128.01602</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" t="s">
         <v>497</v>
       </c>
       <c r="E126" t="s">
@@ -7619,7 +7622,7 @@
       <c r="C127">
         <v>136.07623290000001</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" t="s">
         <v>545</v>
       </c>
       <c r="E127" t="s">
@@ -7663,7 +7666,7 @@
       <c r="C128">
         <v>140.71423340000001</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" t="s">
         <v>552</v>
       </c>
       <c r="E128" t="s">
@@ -7707,7 +7710,7 @@
       <c r="C129">
         <v>140.39001469999999</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" t="s">
         <v>554</v>
       </c>
       <c r="E129" t="s">
@@ -7751,7 +7754,7 @@
       <c r="C130">
         <v>135.58142090000001</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" t="s">
         <v>557</v>
       </c>
       <c r="E130" t="s">
@@ -7795,7 +7798,7 @@
       <c r="C131">
         <v>132.3096314</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" t="s">
         <v>529</v>
       </c>
       <c r="E131" t="s">
@@ -7839,7 +7842,7 @@
       <c r="C132">
         <v>134.07519529999999</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" t="s">
         <v>534</v>
       </c>
       <c r="E132" t="s">
@@ -7883,7 +7886,7 @@
       <c r="C133">
         <v>131.244812</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" t="s">
         <v>538</v>
       </c>
       <c r="E133" t="s">
@@ -7927,7 +7930,7 @@
       <c r="C134">
         <v>134.5029907</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" t="s">
         <v>542</v>
       </c>
       <c r="E134" t="s">
@@ -7963,6 +7966,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="N1:N134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N134">
     <sortCondition ref="K2:K134"/>
   </sortState>

--- a/POI/Points.xlsx
+++ b/POI/Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A30210-FFE9-418F-B354-6C7DD4BC4364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47481CB-91DC-44C9-9F04-B64E2B62EA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2054,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5857,10 +5857,10 @@
         <v>286</v>
       </c>
       <c r="B87">
-        <v>-2.7134165273885902</v>
+        <v>-2.8542024000000001</v>
       </c>
       <c r="C87">
-        <v>111.15936982009499</v>
+        <v>110.9023006</v>
       </c>
       <c r="D87" t="s">
         <v>386</v>

--- a/POI/Points.xlsx
+++ b/POI/Points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47481CB-91DC-44C9-9F04-B64E2B62EA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B986DE2E-0C30-4FE8-9166-379F9EF6F120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="573">
   <si>
     <t>objectid</t>
   </si>
@@ -1706,13 +1706,53 @@
   </si>
   <si>
     <t xml:space="preserve">Nabire  </t>
+  </si>
+  <si>
+    <t>Batam Centre</t>
+  </si>
+  <si>
+    <t>Sekupang</t>
+  </si>
+  <si>
+    <t>Nongsa</t>
+  </si>
+  <si>
+    <t>Kabil</t>
+  </si>
+  <si>
+    <t>Malarko</t>
+  </si>
+  <si>
+    <t>Tanjung Potot</t>
+  </si>
+  <si>
+    <t>CB01050401</t>
+  </si>
+  <si>
+    <t>WGS1985</t>
+  </si>
+  <si>
+    <t>Merak</t>
+  </si>
+  <si>
+    <t>Anyer Lor</t>
+  </si>
+  <si>
+    <t>Jl. Yos Sudarso No. 120 Merak Banten 42439</t>
+  </si>
+  <si>
+    <t>Satui Bunati</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1721,6 +1761,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1745,9 +1790,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2052,23 +2099,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="13" max="13" width="39.85546875" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.88671875" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2156,7 +2204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2200,7 +2248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9</v>
       </c>
@@ -2244,7 +2292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2288,7 +2336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2332,7 +2380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13</v>
       </c>
@@ -2376,7 +2424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2420,7 +2468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>31</v>
       </c>
@@ -2464,7 +2512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21</v>
       </c>
@@ -2508,7 +2556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -2552,7 +2600,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>35</v>
       </c>
@@ -2596,7 +2644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>29</v>
       </c>
@@ -2640,7 +2688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -2684,7 +2732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -2728,7 +2776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>33</v>
       </c>
@@ -2772,7 +2820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>38</v>
       </c>
@@ -2816,7 +2864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>32</v>
       </c>
@@ -2860,7 +2908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>36</v>
       </c>
@@ -2904,7 +2952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>34</v>
       </c>
@@ -2948,7 +2996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24</v>
       </c>
@@ -2992,7 +3040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>48</v>
       </c>
@@ -3036,7 +3084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>47</v>
       </c>
@@ -3080,7 +3128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>91</v>
       </c>
@@ -3124,7 +3172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>79</v>
       </c>
@@ -3168,7 +3216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>82</v>
       </c>
@@ -3212,7 +3260,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>83</v>
       </c>
@@ -3256,7 +3304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>89</v>
       </c>
@@ -3300,7 +3348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>87</v>
       </c>
@@ -3344,7 +3392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>88</v>
       </c>
@@ -3388,7 +3436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>85</v>
       </c>
@@ -3432,7 +3480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>81</v>
       </c>
@@ -3476,7 +3524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>86</v>
       </c>
@@ -3520,7 +3568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>103</v>
       </c>
@@ -3564,7 +3612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>100</v>
       </c>
@@ -3608,7 +3656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>111</v>
       </c>
@@ -3652,7 +3700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>106</v>
       </c>
@@ -3696,7 +3744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>96</v>
       </c>
@@ -3740,7 +3788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>126</v>
       </c>
@@ -3784,7 +3832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>121</v>
       </c>
@@ -3828,7 +3876,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>113</v>
       </c>
@@ -3872,7 +3920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>114</v>
       </c>
@@ -3916,7 +3964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>120</v>
       </c>
@@ -3960,7 +4008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>118</v>
       </c>
@@ -4004,7 +4052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>52</v>
       </c>
@@ -4048,7 +4096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>54</v>
       </c>
@@ -4092,7 +4140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>59</v>
       </c>
@@ -4136,7 +4184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>60</v>
       </c>
@@ -4180,7 +4228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>75</v>
       </c>
@@ -4224,7 +4272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>146</v>
       </c>
@@ -4268,7 +4316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>150</v>
       </c>
@@ -4312,7 +4360,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>139</v>
       </c>
@@ -4356,7 +4404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>141</v>
       </c>
@@ -4400,7 +4448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>143</v>
       </c>
@@ -4444,7 +4492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>164</v>
       </c>
@@ -4488,7 +4536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>154</v>
       </c>
@@ -4532,7 +4580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>169</v>
       </c>
@@ -4576,7 +4624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>171</v>
       </c>
@@ -4620,7 +4668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>185</v>
       </c>
@@ -4664,7 +4712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>177</v>
       </c>
@@ -4708,7 +4756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>178</v>
       </c>
@@ -4752,7 +4800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>192</v>
       </c>
@@ -4796,7 +4844,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>132</v>
       </c>
@@ -4840,7 +4888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>195</v>
       </c>
@@ -4884,7 +4932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>194</v>
       </c>
@@ -4928,7 +4976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>211</v>
       </c>
@@ -4972,7 +5020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>200</v>
       </c>
@@ -5016,7 +5064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>205</v>
       </c>
@@ -5060,7 +5108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>218</v>
       </c>
@@ -5104,7 +5152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>219</v>
       </c>
@@ -5148,7 +5196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>214</v>
       </c>
@@ -5192,7 +5240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>238</v>
       </c>
@@ -5236,7 +5284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>252</v>
       </c>
@@ -5280,7 +5328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>236</v>
       </c>
@@ -5324,7 +5372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>249</v>
       </c>
@@ -5368,7 +5416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>230</v>
       </c>
@@ -5412,7 +5460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>258</v>
       </c>
@@ -5456,7 +5504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>269</v>
       </c>
@@ -5500,7 +5548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>270</v>
       </c>
@@ -5544,7 +5592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>284</v>
       </c>
@@ -5588,7 +5636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>278</v>
       </c>
@@ -5632,7 +5680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>279</v>
       </c>
@@ -5676,7 +5724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>277</v>
       </c>
@@ -5720,7 +5768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>283</v>
       </c>
@@ -5764,7 +5812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>280</v>
       </c>
@@ -5808,7 +5856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>281</v>
       </c>
@@ -5852,7 +5900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>286</v>
       </c>
@@ -5896,7 +5944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>294</v>
       </c>
@@ -5940,7 +5988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>301</v>
       </c>
@@ -5984,7 +6032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>304</v>
       </c>
@@ -6028,7 +6076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>307</v>
       </c>
@@ -6072,7 +6120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>312</v>
       </c>
@@ -6116,7 +6164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>313</v>
       </c>
@@ -6160,7 +6208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>308</v>
       </c>
@@ -6204,7 +6252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>306</v>
       </c>
@@ -6248,7 +6296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>290</v>
       </c>
@@ -6292,7 +6340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>293</v>
       </c>
@@ -6336,7 +6384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>317</v>
       </c>
@@ -6380,7 +6428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>352</v>
       </c>
@@ -6424,7 +6472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>375</v>
       </c>
@@ -6468,7 +6516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>379</v>
       </c>
@@ -6512,7 +6560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>373</v>
       </c>
@@ -6556,7 +6604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>386</v>
       </c>
@@ -6600,7 +6648,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>398</v>
       </c>
@@ -6644,7 +6692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>381</v>
       </c>
@@ -6688,7 +6736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>431</v>
       </c>
@@ -6732,7 +6780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>440</v>
       </c>
@@ -6776,7 +6824,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>447</v>
       </c>
@@ -6820,7 +6868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>450</v>
       </c>
@@ -6864,7 +6912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>400</v>
       </c>
@@ -6908,7 +6956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>415</v>
       </c>
@@ -6952,7 +7000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>416</v>
       </c>
@@ -6996,7 +7044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>359</v>
       </c>
@@ -7040,7 +7088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>358</v>
       </c>
@@ -7084,7 +7132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>367</v>
       </c>
@@ -7128,7 +7176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>520</v>
       </c>
@@ -7172,7 +7220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>558</v>
       </c>
@@ -7216,7 +7264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>525</v>
       </c>
@@ -7260,7 +7308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>523</v>
       </c>
@@ -7304,7 +7352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>567</v>
       </c>
@@ -7348,7 +7396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>585</v>
       </c>
@@ -7392,7 +7440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>506</v>
       </c>
@@ -7436,7 +7484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>473</v>
       </c>
@@ -7480,7 +7528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>516</v>
       </c>
@@ -7524,7 +7572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>512</v>
       </c>
@@ -7568,7 +7616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>496</v>
       </c>
@@ -7612,7 +7660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>614</v>
       </c>
@@ -7656,7 +7704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>621</v>
       </c>
@@ -7700,7 +7748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>625</v>
       </c>
@@ -7744,7 +7792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>628</v>
       </c>
@@ -7788,7 +7836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>588</v>
       </c>
@@ -7832,7 +7880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>591</v>
       </c>
@@ -7876,7 +7924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>603</v>
       </c>
@@ -7920,7 +7968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>611</v>
       </c>
@@ -7961,6 +8009,354 @@
         <v>22</v>
       </c>
       <c r="N134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>612</v>
+      </c>
+      <c r="B135">
+        <v>1.1324073716641001</v>
+      </c>
+      <c r="C135">
+        <v>104.055473258904</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I135" t="s">
+        <v>34</v>
+      </c>
+      <c r="J135" t="s">
+        <v>153</v>
+      </c>
+      <c r="K135">
+        <v>21</v>
+      </c>
+      <c r="M135" t="s">
+        <v>57</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>613</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1.12510023290359</v>
+      </c>
+      <c r="C136" s="2">
+        <v>103.926394164436</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J136" t="s">
+        <v>153</v>
+      </c>
+      <c r="K136">
+        <v>22</v>
+      </c>
+      <c r="M136" t="s">
+        <v>57</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>614</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1.189268483327</v>
+      </c>
+      <c r="C137">
+        <v>104.094177397446</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J137" t="s">
+        <v>153</v>
+      </c>
+      <c r="K137">
+        <v>23</v>
+      </c>
+      <c r="M137" t="s">
+        <v>57</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>615</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1.07456243039963</v>
+      </c>
+      <c r="C138" s="1">
+        <v>104.139524211455</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J138" t="s">
+        <v>153</v>
+      </c>
+      <c r="K138">
+        <v>24</v>
+      </c>
+      <c r="M138" t="s">
+        <v>57</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>616</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1.1091331469832899</v>
+      </c>
+      <c r="C139" s="1">
+        <v>103.384617110466</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E139" t="s">
+        <v>158</v>
+      </c>
+      <c r="F139" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" t="s">
+        <v>21</v>
+      </c>
+      <c r="I139" t="s">
+        <v>34</v>
+      </c>
+      <c r="J139" t="s">
+        <v>35</v>
+      </c>
+      <c r="K139">
+        <v>21</v>
+      </c>
+      <c r="L139">
+        <v>21.02</v>
+      </c>
+      <c r="M139" t="s">
+        <v>22</v>
+      </c>
+      <c r="N139" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>617</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1.07634317599183</v>
+      </c>
+      <c r="C140" s="1">
+        <v>103.094679367249</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E140" t="s">
+        <v>158</v>
+      </c>
+      <c r="F140" t="s">
+        <v>567</v>
+      </c>
+      <c r="G140" t="s">
+        <v>568</v>
+      </c>
+      <c r="H140" t="s">
+        <v>21</v>
+      </c>
+      <c r="I140" t="s">
+        <v>34</v>
+      </c>
+      <c r="J140" t="s">
+        <v>35</v>
+      </c>
+      <c r="K140">
+        <v>21</v>
+      </c>
+      <c r="L140">
+        <v>21.02</v>
+      </c>
+      <c r="M140" t="s">
+        <v>22</v>
+      </c>
+      <c r="N140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>618</v>
+      </c>
+      <c r="B141" s="1">
+        <v>-5.9234567882825999</v>
+      </c>
+      <c r="C141" s="1">
+        <v>105.995855147803</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E141" t="s">
+        <v>240</v>
+      </c>
+      <c r="F141" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" t="s">
+        <v>241</v>
+      </c>
+      <c r="I141" t="s">
+        <v>242</v>
+      </c>
+      <c r="J141" t="s">
+        <v>243</v>
+      </c>
+      <c r="K141">
+        <v>36</v>
+      </c>
+      <c r="L141">
+        <v>36.72</v>
+      </c>
+      <c r="M141" t="s">
+        <v>57</v>
+      </c>
+      <c r="N141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>619</v>
+      </c>
+      <c r="B142" s="1">
+        <v>-6.0471889877104701</v>
+      </c>
+      <c r="C142" s="1">
+        <v>105.922635562729</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E142" t="s">
+        <v>240</v>
+      </c>
+      <c r="F142" t="s">
+        <v>567</v>
+      </c>
+      <c r="G142" t="s">
+        <v>568</v>
+      </c>
+      <c r="H142" t="s">
+        <v>571</v>
+      </c>
+      <c r="I142" t="s">
+        <v>242</v>
+      </c>
+      <c r="J142" t="s">
+        <v>243</v>
+      </c>
+      <c r="K142">
+        <v>36</v>
+      </c>
+      <c r="L142">
+        <v>36.72</v>
+      </c>
+      <c r="M142" t="s">
+        <v>57</v>
+      </c>
+      <c r="N142" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>620</v>
+      </c>
+      <c r="B143" s="1">
+        <v>-3.74960787389334</v>
+      </c>
+      <c r="C143" s="1">
+        <v>115.633823025211</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E143" t="s">
+        <v>400</v>
+      </c>
+      <c r="F143" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" t="s">
+        <v>398</v>
+      </c>
+      <c r="I143" t="s">
+        <v>55</v>
+      </c>
+      <c r="J143" t="s">
+        <v>401</v>
+      </c>
+      <c r="K143">
+        <v>63</v>
+      </c>
+      <c r="L143">
+        <v>63.1</v>
+      </c>
+      <c r="M143" t="s">
+        <v>22</v>
+      </c>
+      <c r="N143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7970,6 +8366,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N134">
     <sortCondition ref="K2:K134"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/POI/Points.xlsx
+++ b/POI/Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B986DE2E-0C30-4FE8-9166-379F9EF6F120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F702F263-4062-4AF4-B4E2-BCF1259FB06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1749,8 +1749,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1793,8 +1793,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2101,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4849,10 +4849,10 @@
         <v>132</v>
       </c>
       <c r="B63">
-        <v>-6.0172730000000003</v>
+        <v>-6.0135128687011097</v>
       </c>
       <c r="C63">
-        <v>105.95458979999999</v>
+        <v>105.957704766858</v>
       </c>
       <c r="D63" t="s">
         <v>239</v>
@@ -4866,7 +4866,7 @@
       <c r="G63" t="s">
         <v>17</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I63" t="s">

--- a/POI/Points.xlsx
+++ b/POI/Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F702F263-4062-4AF4-B4E2-BCF1259FB06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9310B5-82AA-41D5-B50E-495CE8B31E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2099,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8189,10 +8189,10 @@
         <v>617</v>
       </c>
       <c r="B140" s="1">
-        <v>1.07634317599183</v>
+        <v>1.0771433406800199</v>
       </c>
       <c r="C140" s="1">
-        <v>103.094679367249</v>
+        <v>103.31029134492999</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>566</v>
@@ -8359,6 +8359,9 @@
       <c r="N143" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C144" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/POI/Points.xlsx
+++ b/POI/Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9310B5-82AA-41D5-B50E-495CE8B31E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD955AF-90CC-420A-AD31-C5133A7BED13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="561">
   <si>
     <t>objectid</t>
   </si>
@@ -1706,52 +1706,12 @@
   </si>
   <si>
     <t xml:space="preserve">Nabire  </t>
-  </si>
-  <si>
-    <t>Batam Centre</t>
-  </si>
-  <si>
-    <t>Sekupang</t>
-  </si>
-  <si>
-    <t>Nongsa</t>
-  </si>
-  <si>
-    <t>Kabil</t>
-  </si>
-  <si>
-    <t>Malarko</t>
-  </si>
-  <si>
-    <t>Tanjung Potot</t>
-  </si>
-  <si>
-    <t>CB01050401</t>
-  </si>
-  <si>
-    <t>WGS1985</t>
-  </si>
-  <si>
-    <t>Merak</t>
-  </si>
-  <si>
-    <t>Anyer Lor</t>
-  </si>
-  <si>
-    <t>Jl. Yos Sudarso No. 120 Merak Banten 42439</t>
-  </si>
-  <si>
-    <t>Satui Bunati</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1790,11 +1750,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2102,7 +2060,7 @@
   <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="H145" sqref="H145"/>
+      <selection activeCell="C139" sqref="C138:C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8012,354 +7970,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>612</v>
-      </c>
-      <c r="B135">
-        <v>1.1324073716641001</v>
-      </c>
-      <c r="C135">
-        <v>104.055473258904</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I135" t="s">
-        <v>34</v>
-      </c>
-      <c r="J135" t="s">
-        <v>153</v>
-      </c>
-      <c r="K135">
-        <v>21</v>
-      </c>
-      <c r="M135" t="s">
-        <v>57</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>613</v>
-      </c>
-      <c r="B136" s="1">
-        <v>1.12510023290359</v>
-      </c>
-      <c r="C136" s="2">
-        <v>103.926394164436</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J136" t="s">
-        <v>153</v>
-      </c>
-      <c r="K136">
-        <v>22</v>
-      </c>
-      <c r="M136" t="s">
-        <v>57</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>614</v>
-      </c>
-      <c r="B137" s="3">
-        <v>1.189268483327</v>
-      </c>
-      <c r="C137">
-        <v>104.094177397446</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J137" t="s">
-        <v>153</v>
-      </c>
-      <c r="K137">
-        <v>23</v>
-      </c>
-      <c r="M137" t="s">
-        <v>57</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>615</v>
-      </c>
-      <c r="B138" s="1">
-        <v>1.07456243039963</v>
-      </c>
-      <c r="C138" s="1">
-        <v>104.139524211455</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J138" t="s">
-        <v>153</v>
-      </c>
-      <c r="K138">
-        <v>24</v>
-      </c>
-      <c r="M138" t="s">
-        <v>57</v>
-      </c>
-      <c r="N138" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>616</v>
-      </c>
-      <c r="B139" s="1">
-        <v>1.1091331469832899</v>
-      </c>
-      <c r="C139" s="1">
-        <v>103.384617110466</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E139" t="s">
-        <v>158</v>
-      </c>
-      <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s">
-        <v>17</v>
-      </c>
-      <c r="H139" t="s">
-        <v>21</v>
-      </c>
-      <c r="I139" t="s">
-        <v>34</v>
-      </c>
-      <c r="J139" t="s">
-        <v>35</v>
-      </c>
-      <c r="K139">
-        <v>21</v>
-      </c>
-      <c r="L139">
-        <v>21.02</v>
-      </c>
-      <c r="M139" t="s">
-        <v>22</v>
-      </c>
-      <c r="N139" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>617</v>
-      </c>
-      <c r="B140" s="1">
-        <v>1.0771433406800199</v>
-      </c>
-      <c r="C140" s="1">
-        <v>103.31029134492999</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E140" t="s">
-        <v>158</v>
-      </c>
-      <c r="F140" t="s">
-        <v>567</v>
-      </c>
-      <c r="G140" t="s">
-        <v>568</v>
-      </c>
-      <c r="H140" t="s">
-        <v>21</v>
-      </c>
-      <c r="I140" t="s">
-        <v>34</v>
-      </c>
-      <c r="J140" t="s">
-        <v>35</v>
-      </c>
-      <c r="K140">
-        <v>21</v>
-      </c>
-      <c r="L140">
-        <v>21.02</v>
-      </c>
-      <c r="M140" t="s">
-        <v>22</v>
-      </c>
-      <c r="N140" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>618</v>
-      </c>
-      <c r="B141" s="1">
-        <v>-5.9234567882825999</v>
-      </c>
-      <c r="C141" s="1">
-        <v>105.995855147803</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="E141" t="s">
-        <v>240</v>
-      </c>
-      <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s">
-        <v>17</v>
-      </c>
-      <c r="H141" t="s">
-        <v>241</v>
-      </c>
-      <c r="I141" t="s">
-        <v>242</v>
-      </c>
-      <c r="J141" t="s">
-        <v>243</v>
-      </c>
-      <c r="K141">
-        <v>36</v>
-      </c>
-      <c r="L141">
-        <v>36.72</v>
-      </c>
-      <c r="M141" t="s">
-        <v>57</v>
-      </c>
-      <c r="N141" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>619</v>
-      </c>
-      <c r="B142" s="1">
-        <v>-6.0471889877104701</v>
-      </c>
-      <c r="C142" s="1">
-        <v>105.922635562729</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E142" t="s">
-        <v>240</v>
-      </c>
-      <c r="F142" t="s">
-        <v>567</v>
-      </c>
-      <c r="G142" t="s">
-        <v>568</v>
-      </c>
-      <c r="H142" t="s">
-        <v>571</v>
-      </c>
-      <c r="I142" t="s">
-        <v>242</v>
-      </c>
-      <c r="J142" t="s">
-        <v>243</v>
-      </c>
-      <c r="K142">
-        <v>36</v>
-      </c>
-      <c r="L142">
-        <v>36.72</v>
-      </c>
-      <c r="M142" t="s">
-        <v>57</v>
-      </c>
-      <c r="N142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>620</v>
-      </c>
-      <c r="B143" s="1">
-        <v>-3.74960787389334</v>
-      </c>
-      <c r="C143" s="1">
-        <v>115.633823025211</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="E143" t="s">
-        <v>400</v>
-      </c>
-      <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s">
-        <v>17</v>
-      </c>
-      <c r="H143" t="s">
-        <v>398</v>
-      </c>
-      <c r="I143" t="s">
-        <v>55</v>
-      </c>
-      <c r="J143" t="s">
-        <v>401</v>
-      </c>
-      <c r="K143">
-        <v>63</v>
-      </c>
-      <c r="L143">
-        <v>63.1</v>
-      </c>
-      <c r="M143" t="s">
-        <v>22</v>
-      </c>
-      <c r="N143" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C144" s="1"/>
     </row>

--- a/POI/Points.xlsx
+++ b/POI/Points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD955AF-90CC-420A-AD31-C5133A7BED13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10D0DC-1BF1-4B13-A4E0-1AA7D0BCAC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="564">
   <si>
     <t>objectid</t>
   </si>
@@ -1706,6 +1706,15 @@
   </si>
   <si>
     <t xml:space="preserve">Nabire  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapudi   </t>
+  </si>
+  <si>
+    <t>ISG</t>
+  </si>
+  <si>
+    <t>Jl. Pelabuhan No. 1 Gawam Sapudi Kab. Sumenep Madura Jawa Timur 69483</t>
   </si>
 </sst>
 </file>
@@ -2059,22 +2068,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C139" sqref="C138:C139"/>
+    <sheetView tabSelected="1" topLeftCell="E131" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="13" max="13" width="39.88671875" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2162,7 +2171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -2250,7 +2259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -2514,7 +2523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -2558,7 +2567,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
@@ -2602,7 +2611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>29</v>
       </c>
@@ -2646,7 +2655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -2690,7 +2699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -2734,7 +2743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>33</v>
       </c>
@@ -2778,7 +2787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>38</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>32</v>
       </c>
@@ -2866,7 +2875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>36</v>
       </c>
@@ -2910,7 +2919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>34</v>
       </c>
@@ -2954,7 +2963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24</v>
       </c>
@@ -2998,7 +3007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>48</v>
       </c>
@@ -3042,7 +3051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>47</v>
       </c>
@@ -3086,7 +3095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>91</v>
       </c>
@@ -3130,7 +3139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>79</v>
       </c>
@@ -3174,7 +3183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>82</v>
       </c>
@@ -3218,7 +3227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>83</v>
       </c>
@@ -3262,7 +3271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89</v>
       </c>
@@ -3306,7 +3315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>87</v>
       </c>
@@ -3350,7 +3359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>88</v>
       </c>
@@ -3394,7 +3403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>85</v>
       </c>
@@ -3438,7 +3447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>81</v>
       </c>
@@ -3482,7 +3491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>86</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>103</v>
       </c>
@@ -3570,7 +3579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>100</v>
       </c>
@@ -3614,7 +3623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>111</v>
       </c>
@@ -3658,7 +3667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>106</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>96</v>
       </c>
@@ -3746,7 +3755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>126</v>
       </c>
@@ -3790,7 +3799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>121</v>
       </c>
@@ -3834,7 +3843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>113</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>114</v>
       </c>
@@ -3922,7 +3931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>120</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>118</v>
       </c>
@@ -4010,7 +4019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>52</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>54</v>
       </c>
@@ -4098,7 +4107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>59</v>
       </c>
@@ -4142,7 +4151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>60</v>
       </c>
@@ -4186,7 +4195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>75</v>
       </c>
@@ -4230,7 +4239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>146</v>
       </c>
@@ -4274,7 +4283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>150</v>
       </c>
@@ -4318,7 +4327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>139</v>
       </c>
@@ -4362,7 +4371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>141</v>
       </c>
@@ -4406,7 +4415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>143</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>164</v>
       </c>
@@ -4494,7 +4503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>154</v>
       </c>
@@ -4538,7 +4547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>169</v>
       </c>
@@ -4582,7 +4591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>171</v>
       </c>
@@ -4626,7 +4635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>185</v>
       </c>
@@ -4670,7 +4679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>177</v>
       </c>
@@ -4714,7 +4723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>178</v>
       </c>
@@ -4758,7 +4767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>192</v>
       </c>
@@ -4802,7 +4811,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>132</v>
       </c>
@@ -4846,7 +4855,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>195</v>
       </c>
@@ -4890,7 +4899,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>194</v>
       </c>
@@ -4934,7 +4943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>211</v>
       </c>
@@ -4978,7 +4987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200</v>
       </c>
@@ -5022,7 +5031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>205</v>
       </c>
@@ -5066,7 +5075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>218</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>219</v>
       </c>
@@ -5154,7 +5163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>214</v>
       </c>
@@ -5198,7 +5207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>238</v>
       </c>
@@ -5242,7 +5251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>252</v>
       </c>
@@ -5286,7 +5295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>236</v>
       </c>
@@ -5330,7 +5339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>249</v>
       </c>
@@ -5374,7 +5383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>230</v>
       </c>
@@ -5418,7 +5427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>258</v>
       </c>
@@ -5462,7 +5471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>269</v>
       </c>
@@ -5506,7 +5515,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>270</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>284</v>
       </c>
@@ -5594,7 +5603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>278</v>
       </c>
@@ -5638,7 +5647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>279</v>
       </c>
@@ -5682,7 +5691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>277</v>
       </c>
@@ -5726,7 +5735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>283</v>
       </c>
@@ -5770,7 +5779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>280</v>
       </c>
@@ -5814,7 +5823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>281</v>
       </c>
@@ -5858,7 +5867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>286</v>
       </c>
@@ -5902,7 +5911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>294</v>
       </c>
@@ -5946,7 +5955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>301</v>
       </c>
@@ -5990,7 +5999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>304</v>
       </c>
@@ -6034,7 +6043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>307</v>
       </c>
@@ -6078,7 +6087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>312</v>
       </c>
@@ -6122,7 +6131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>313</v>
       </c>
@@ -6166,7 +6175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>308</v>
       </c>
@@ -6210,7 +6219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>306</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>290</v>
       </c>
@@ -6298,7 +6307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>293</v>
       </c>
@@ -6342,7 +6351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>317</v>
       </c>
@@ -6386,7 +6395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>352</v>
       </c>
@@ -6430,7 +6439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>375</v>
       </c>
@@ -6474,7 +6483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>379</v>
       </c>
@@ -6518,7 +6527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>373</v>
       </c>
@@ -6562,7 +6571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>386</v>
       </c>
@@ -6606,7 +6615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>398</v>
       </c>
@@ -6650,7 +6659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>381</v>
       </c>
@@ -6694,7 +6703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>431</v>
       </c>
@@ -6738,7 +6747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>440</v>
       </c>
@@ -6782,7 +6791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>447</v>
       </c>
@@ -6826,7 +6835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>450</v>
       </c>
@@ -6870,7 +6879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>400</v>
       </c>
@@ -6914,7 +6923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>415</v>
       </c>
@@ -6958,7 +6967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>416</v>
       </c>
@@ -7002,7 +7011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>359</v>
       </c>
@@ -7046,7 +7055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>358</v>
       </c>
@@ -7090,7 +7099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>367</v>
       </c>
@@ -7134,7 +7143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>520</v>
       </c>
@@ -7178,7 +7187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>558</v>
       </c>
@@ -7222,7 +7231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>525</v>
       </c>
@@ -7266,7 +7275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>523</v>
       </c>
@@ -7310,7 +7319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>567</v>
       </c>
@@ -7354,7 +7363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>585</v>
       </c>
@@ -7398,7 +7407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>506</v>
       </c>
@@ -7442,7 +7451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>473</v>
       </c>
@@ -7486,7 +7495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>516</v>
       </c>
@@ -7530,7 +7539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>512</v>
       </c>
@@ -7574,7 +7583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>496</v>
       </c>
@@ -7618,7 +7627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>614</v>
       </c>
@@ -7662,7 +7671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>621</v>
       </c>
@@ -7706,7 +7715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>625</v>
       </c>
@@ -7750,7 +7759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>628</v>
       </c>
@@ -7794,7 +7803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>588</v>
       </c>
@@ -7838,7 +7847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>591</v>
       </c>
@@ -7882,7 +7891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>603</v>
       </c>
@@ -7926,7 +7935,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>611</v>
       </c>
@@ -7970,7 +7979,51 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>187</v>
+      </c>
+      <c r="B135">
+        <v>-7.1704711999999997</v>
+      </c>
+      <c r="C135">
+        <v>114.3265991</v>
+      </c>
+      <c r="D135" t="s">
+        <v>561</v>
+      </c>
+      <c r="E135" t="s">
+        <v>562</v>
+      </c>
+      <c r="F135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" t="s">
+        <v>563</v>
+      </c>
+      <c r="I135" t="s">
+        <v>272</v>
+      </c>
+      <c r="J135" t="s">
+        <v>291</v>
+      </c>
+      <c r="K135">
+        <v>35</v>
+      </c>
+      <c r="L135">
+        <v>35.29</v>
+      </c>
+      <c r="M135" t="s">
+        <v>25</v>
+      </c>
+      <c r="N135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
     </row>
   </sheetData>

--- a/POI/Points.xlsx
+++ b/POI/Points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10D0DC-1BF1-4B13-A4E0-1AA7D0BCAC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C149891-B4E3-4B22-AB86-8DD41F4CC48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -2068,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E131" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4376,10 +4376,10 @@
         <v>141</v>
       </c>
       <c r="B53">
-        <v>-7.6846924000000003</v>
+        <v>-7.71508729176269</v>
       </c>
       <c r="C53">
-        <v>108.6748047</v>
+        <v>108.501925891317</v>
       </c>
       <c r="D53" t="s">
         <v>249</v>
@@ -5520,10 +5520,10 @@
         <v>270</v>
       </c>
       <c r="B79">
-        <v>1.3621825999999999</v>
+        <v>1.1983403029391</v>
       </c>
       <c r="C79">
-        <v>109.3120117</v>
+        <v>109.055470228237</v>
       </c>
       <c r="D79" t="s">
         <v>358</v>
@@ -6092,10 +6092,10 @@
         <v>312</v>
       </c>
       <c r="B92">
-        <v>0.53553119999999999</v>
+        <v>0.47340115634963897</v>
       </c>
       <c r="C92">
-        <v>117.6442007</v>
+        <v>117.601627216975</v>
       </c>
       <c r="D92" t="s">
         <v>415</v>
@@ -7500,10 +7500,10 @@
         <v>516</v>
       </c>
       <c r="B124">
-        <v>-0.69091800000000003</v>
+        <v>0.67934328869543004</v>
       </c>
       <c r="C124">
-        <v>127.45599369999999</v>
+        <v>127.45515148280499</v>
       </c>
       <c r="D124" t="s">
         <v>508</v>
@@ -7544,10 +7544,10 @@
         <v>512</v>
       </c>
       <c r="B125">
-        <v>-0.76129150000000001</v>
+        <v>0.77966800769911704</v>
       </c>
       <c r="C125">
-        <v>127.4484253</v>
+        <v>127.387653846394</v>
       </c>
       <c r="D125" t="s">
         <v>506</v>
